--- a/report_template/calibration_monthly.xlsx
+++ b/report_template/calibration_monthly.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="校正月報" sheetId="4" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>校正月報表</t>
   </si>
   <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
-  <si>
     <t>印表日期：20150820</t>
   </si>
   <si>
@@ -107,6 +104,10 @@
   <si>
     <t xml:space="preserve">大城站(甲烷)   全幅讀值趨勢圖
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +293,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -463,7 +463,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -500,7 +499,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -514,7 +512,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -556,7 +553,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -727,7 +723,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -764,7 +759,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -778,7 +772,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1174,6 +1167,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1209,6 +1219,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1387,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1442,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1428,13 +1455,13 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1444,56 +1471,56 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2025,7 +2052,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2033,7 +2060,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2041,7 +2068,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>

--- a/report_template/calibration_monthly.xlsx
+++ b/report_template/calibration_monthly.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>校正月報表</t>
   </si>
@@ -104,10 +104,6 @@
   <si>
     <t xml:space="preserve">大城站(甲烷)   全幅讀值趨勢圖
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測站名稱：台積電監測車</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1007,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1041,7 +1043,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1071,7 +1079,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1441,9 +1455,7 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
